--- a/feat.xlsx
+++ b/feat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>201939</v>
+        <v>201910</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5079659393293513</v>
+        <v>0.3963515926223403</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -672,16 +672,16 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02844714076958525</v>
+        <v>0.01491878149848453</v>
       </c>
       <c r="AB2" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>20.56555353171865</v>
@@ -695,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>201940</v>
+        <v>201911</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.048195</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.0320855421686747</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4276311724466377</v>
+        <v>0.3862791965838814</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01080954111593122</v>
+        <v>0.01043451825257207</v>
       </c>
       <c r="AB3" t="n">
         <v>0.0101010101010101</v>
@@ -781,7 +781,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>20.56555353171865</v>
@@ -795,13 +795,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>201941</v>
+        <v>201912</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04148148147777778</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08433734939759036</v>
+        <v>0.02213132530120482</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3952988534088512</v>
+        <v>0.3844223760535083</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -872,16 +872,16 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.007825440334571283</v>
+        <v>0.007023504440674107</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>20.56555353171865</v>
@@ -895,13 +895,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>201942</v>
+        <v>201913</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01185185185555556</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4453313613427622</v>
+        <v>0.4070812421191313</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01378572695054878</v>
+        <v>0.007820833146087103</v>
       </c>
       <c r="AB5" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC5" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>20.56555353171865</v>
@@ -995,13 +995,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>201943</v>
+        <v>201914</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3910790894902577</v>
+        <v>0.4228442677620237</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02715259814087369</v>
+        <v>0.008690585191936122</v>
       </c>
       <c r="AB6" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>20.56555353171865</v>
@@ -1095,13 +1095,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>201944</v>
+        <v>201915</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1127,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.0187821686746988</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4937505386451371</v>
+        <v>0.4238922422208974</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03569393226003413</v>
+        <v>0.01055448488542959</v>
       </c>
       <c r="AB7" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC7" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>20.56555353171865</v>
@@ -1195,13 +1195,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>201945</v>
+        <v>201916</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.01736240963855422</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4798140632657362</v>
+        <v>0.495335470571148</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03088047603857828</v>
+        <v>0.01206092087226486</v>
       </c>
       <c r="AB8" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC8" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>20.56555353171865</v>
@@ -1295,13 +1295,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D9" t="n">
-        <v>201946</v>
+        <v>201917</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1473333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4131369205706968</v>
+        <v>0.4129459114817958</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1366,22 +1366,22 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02579766790691434</v>
+        <v>0.009691637397433317</v>
       </c>
       <c r="AB9" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>20.56555353171865</v>
@@ -1395,13 +1395,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>201947</v>
+        <v>201918</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.34758</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.02867383512222222</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.07578701904819278</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3976335137108802</v>
+        <v>0.4593594087073157</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1466,22 +1466,22 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0105822329735973</v>
+        <v>0.01089774698983685</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC10" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>20.56555353171865</v>
@@ -1495,13 +1495,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>201948</v>
+        <v>201919</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.29558</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.04014336917777778</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.1061018266626506</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4058852907083164</v>
+        <v>0.4670060578101545</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1566,22 +1566,22 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01790255139203105</v>
+        <v>0.009684005781253682</v>
       </c>
       <c r="AB11" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC11" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AD11" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
         <v>20.56555353171865</v>
@@ -1595,13 +1595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>201949</v>
+        <v>201920</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.05066666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.3331989247777778</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.1061018266626506</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4470738502772382</v>
+        <v>0.4123537862428833</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1669,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01386153067190398</v>
+        <v>0.004505032532613161</v>
       </c>
       <c r="AB12" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC12" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>20.56555353171865</v>
@@ -1695,13 +1695,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D13" t="n">
-        <v>201950</v>
+        <v>201921</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.1003866666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.450421147</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.1061018266626506</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4364009341619893</v>
+        <v>0.4441754292422143</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1769,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01400517204100869</v>
+        <v>0.009789435764383091</v>
       </c>
       <c r="AB13" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC13" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>20.56555353171865</v>
@@ -1795,13 +1795,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>201951</v>
+        <v>201922</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1703866666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.2794145758888888</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.56858381</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.1079155330963855</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5262750905357646</v>
+        <v>0.5143223416200244</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0143223944506718</v>
+        <v>0.007896089336321582</v>
       </c>
       <c r="AB14" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC14" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
         <v>25</v>
@@ -1895,13 +1895,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>201952</v>
+        <v>201923</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.09798285714285715</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.2513333333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.05703703703333333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1927,32 +1927,32 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.1124497991927711</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4718102179048247</v>
+        <v>0.6533643509856071</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
@@ -1969,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01179564814916764</v>
+        <v>0.04463257588880598</v>
       </c>
       <c r="AB15" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC15" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="AD15" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>20.56555353171865</v>
@@ -1995,13 +1995,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D16" t="n">
-        <v>202001</v>
+        <v>201924</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.1460577333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.05703703703333333</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2027,32 +2027,32 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.1124497991927711</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4333832844699733</v>
+        <v>0.4717603736149327</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.006542962425941732</v>
+        <v>0.007825310557779599</v>
       </c>
       <c r="AB16" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>20.8289017019285</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>202002</v>
+        <v>201925</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2112,47 +2112,47 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.05703703703333333</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.31499264</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.1124497991927711</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5063871361078088</v>
+        <v>0.4605609422753031</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
@@ -2172,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03464152064965953</v>
+        <v>0.005830171586509581</v>
       </c>
       <c r="AB17" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC17" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AE17" t="n">
-        <v>20.8289017019285</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -2195,13 +2195,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D18" t="n">
-        <v>202003</v>
+        <v>201926</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.05703703703333333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2227,32 +2227,32 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.1865021060240964</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4057992979255274</v>
+        <v>0.50295808553046</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
@@ -2272,1422 +2272,22 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02264941868386761</v>
+        <v>0.00437113444692316</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0101010101010101</v>
       </c>
       <c r="AC18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>20.8289017019285</v>
+        <v>20.56555353171865</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>81</v>
-      </c>
-      <c r="C19" t="n">
-        <v>81</v>
-      </c>
-      <c r="D19" t="n">
-        <v>202004</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.3819352906565961</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.008371128671742719</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>31</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>82</v>
-      </c>
-      <c r="C20" t="n">
-        <v>82</v>
-      </c>
-      <c r="D20" t="n">
-        <v>202005</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.3829838185311831</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.006269717046145053</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>83</v>
-      </c>
-      <c r="C21" t="n">
-        <v>83</v>
-      </c>
-      <c r="D21" t="n">
-        <v>202006</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.3870360764131937</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.00318567247486958</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>84</v>
-      </c>
-      <c r="C22" t="n">
-        <v>84</v>
-      </c>
-      <c r="D22" t="n">
-        <v>202007</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.3775557679326622</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.0002767931389714694</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>85</v>
-      </c>
-      <c r="C23" t="n">
-        <v>85</v>
-      </c>
-      <c r="D23" t="n">
-        <v>202008</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.3794615148801285</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>-0.0002869853509251468</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>86</v>
-      </c>
-      <c r="C24" t="n">
-        <v>86</v>
-      </c>
-      <c r="D24" t="n">
-        <v>202009</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.3892080187899315</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-0.0002720456314996333</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>18.651428571</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>87</v>
-      </c>
-      <c r="C25" t="n">
-        <v>87</v>
-      </c>
-      <c r="D25" t="n">
-        <v>202010</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.3989755161743703</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.003571348907385504</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>43.98</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>88</v>
-      </c>
-      <c r="C26" t="n">
-        <v>88</v>
-      </c>
-      <c r="D26" t="n">
-        <v>202011</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.4208350839973616</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.002331480227889832</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>45.568571429</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>89</v>
-      </c>
-      <c r="C27" t="n">
-        <v>89</v>
-      </c>
-      <c r="D27" t="n">
-        <v>202012</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.3977247139676816</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>-3.527607193329877e-05</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>83.528571429</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>90</v>
-      </c>
-      <c r="C28" t="n">
-        <v>90</v>
-      </c>
-      <c r="D28" t="n">
-        <v>202013</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.3700942110411141</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>-0.0005569389141133346</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>87.95999999999999</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>91</v>
-      </c>
-      <c r="C29" t="n">
-        <v>91</v>
-      </c>
-      <c r="D29" t="n">
-        <v>202014</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.3988091209907169</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.003639806497956753</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>87.95999999999999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>92</v>
-      </c>
-      <c r="C30" t="n">
-        <v>92</v>
-      </c>
-      <c r="D30" t="n">
-        <v>202015</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.4714175448396231</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.004696267324961371</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>87.95999999999999</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>93</v>
-      </c>
-      <c r="C31" t="n">
-        <v>93</v>
-      </c>
-      <c r="D31" t="n">
-        <v>202016</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.01993855421686747</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.4321121206862725</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.002267929313189486</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>87.95999999999999</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>94</v>
-      </c>
-      <c r="C32" t="n">
-        <v>94</v>
-      </c>
-      <c r="D32" t="n">
-        <v>202017</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>fast_duck</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.02221638554216868</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.438148696485623</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0.001299394348995923</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>20.8289017019285</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>87.95999999999999</v>
       </c>
     </row>
   </sheetData>
